--- a/data/trans_camb/P13A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P13A_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-32,81</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-36,33</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-32,81</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-68,49</t>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,6; 2,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,92; 3,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,65; 2,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,53; 1,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 1,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 1,58</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-2,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-32,81%</t>
+          <t>-4,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-36,33%</t>
+          <t>-8,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-4,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-32,81%</t>
+          <t>-7,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-68,49%</t>
+          <t>-10,65%</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-39,9</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-22,12</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-26,78</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-39,9</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-29,25</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-33,64</t>
+          <t>0,74</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-2,5; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 33,38</t>
+          <t>-0,98; 2,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-94,04; 22,5</t>
+          <t>-0,37; 4,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-1,31; 0,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-96,18; 22,78</t>
+          <t>-0,51; 1,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-96,84; 11,22</t>
+          <t>-0,21; 2,11</t>
         </is>
       </c>
     </row>
@@ -974,12 +974,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-55,45%</t>
+          <t>112,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-67,11%</t>
+          <t>320,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -989,12 +989,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-73,31%</t>
+          <t>107,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-84,31%</t>
+          <t>294,32%</t>
         </is>
       </c>
     </row>
@@ -1064,17 +1064,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-48,49</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-71,11</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-62,54</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1084,27 +1084,27 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,16</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-18,14</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-12,85</t>
+          <t>0,79</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 3,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 2,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 5,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,27 +1137,27 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-63,51; 69,58</t>
+          <t>-0,63; 1,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-93,75; 20,19</t>
+          <t>-0,64; 1,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-80,16; 25,17</t>
+          <t>-0,27; 2,62</t>
         </is>
       </c>
     </row>
@@ -1170,17 +1170,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-48,49%</t>
+          <t>102,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-71,11%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-62,54%</t>
+          <t>242,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1190,27 +1190,27 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>99,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-59,64%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-42,24%</t>
+          <t>253,26%</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-57,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-90,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-89,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-13,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-14,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-20,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-11,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-27,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-31,69</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-58,24; 50,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-63,96; 19,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-70,77; 11,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-60,02; 39,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-67,13; 12,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-71,89; 1,74</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-57,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-90,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-89,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-42,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-43,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-63,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-26,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-63,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-73,83%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1459,12 +1459,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-91,12; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-90,29; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1474,23 +1474,247 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-87,39; 132,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-89,81; 13,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 1,38</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 0,86</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,3; 1,87</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 0,37</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 1,32</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 1,98</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 0,58</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 0,78</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 1,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>100,53%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3,83%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>215,78%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-53,52%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>58,03%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>171,69%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>37,38%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>185,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-75,8; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-39,21; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
